--- a/work.xlsx
+++ b/work.xlsx
@@ -16,37 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">       姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陈 赓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李毛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王雅瑞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李尊永</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张亚鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>何舒晨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         目标（V1.1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +105,78 @@
       </rPr>
       <t>如遇无解的问题及时组内沟通（优先）或百度。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加意新品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         目标（V1.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括加意主页在内的主要分支网页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月12号中午11点之前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尊永</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雅瑞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈赓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何舒晨、张亚鹏、李尊永、王雅瑞、李毛、陈赓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正常人类研究小组（暂定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助老师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚宇森——龚sir</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,9 +271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -563,7 +608,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,14 +619,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -595,172 +637,185 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -770,10 +825,14 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -785,10 +844,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -877,7 +940,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
